--- a/app/config/tables/send_sms/forms/send_sms/send_sms.xlsx
+++ b/app/config/tables/send_sms/forms/send_sms/send_sms.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\send_sms\forms\send_sms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16063"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -47,21 +52,12 @@
     <t>setting_name</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
     <t>prompt_type_name</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>hideInContents</t>
   </si>
   <si>
@@ -102,12 +98,21 @@
   </si>
   <si>
     <t>This will send an sms without requiring confirmation.</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -155,6 +160,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -449,20 +457,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12">
+    <row r="1" spans="1:5" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,71 +478,71 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:5" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -551,43 +559,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+    <row r="3" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+    <row r="4" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -608,17 +616,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" customHeight="1">
+    <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -626,18 +634,18 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.5" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.5" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -645,20 +653,20 @@
         <v>20141008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.5" customHeight="1">
+    <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.5" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
